--- a/Study 3/Shocks/GCAM/NDC_LTT - 2095.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2095.xlsx
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.02027034474767367</v>
+        <v>0.02027034474767366</v>
       </c>
     </row>
     <row r="9">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.0664130748908163</v>
+        <v>0.06641307489081628</v>
       </c>
     </row>
     <row r="13">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.1694679228800163</v>
+        <v>0.1694679228800164</v>
       </c>
     </row>
     <row r="14">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.02300234716822358</v>
+        <v>0.02300234716822359</v>
       </c>
     </row>
     <row r="18">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.05310146311832704</v>
+        <v>0.05310146311832703</v>
       </c>
     </row>
     <row r="21">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.02094896240649008</v>
+        <v>0.02094896240649007</v>
       </c>
     </row>
     <row r="29">
@@ -12602,7 +12602,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.035479817291961</v>
+        <v>0.03547981729196099</v>
       </c>
     </row>
     <row r="33">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.05996009239835998</v>
+        <v>0.05996009239835999</v>
       </c>
     </row>
     <row r="34">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.2329145201081433</v>
+        <v>0.2329145201081432</v>
       </c>
     </row>
     <row r="37">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.2291930308276824</v>
+        <v>0.2291930308276825</v>
       </c>
     </row>
     <row r="38">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.2609173121569204</v>
+        <v>0.2609173121569203</v>
       </c>
     </row>
     <row r="41">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.4279498346091763</v>
+        <v>0.4279498346091765</v>
       </c>
     </row>
   </sheetData>
